--- a/Applications URL.xlsx
+++ b/Applications URL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Sr No.</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Unable to login through given credentials</t>
+  </si>
+  <si>
+    <t>jygkhjkhyk</t>
+  </si>
+  <si>
+    <t>desegfdsgf</t>
   </si>
 </sst>
 </file>
@@ -299,9 +305,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,6 +317,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -656,7 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -845,7 +853,7 @@
       <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -871,16 +879,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -894,12 +902,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -913,12 +921,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -932,12 +940,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -949,7 +957,7 @@
       <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1100,12 +1108,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
